--- a/classification/droptc/modern-bert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9950804710388184</v>
+        <v>0.9955198764801025</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9973679184913635</v>
+        <v>0.9877251982688904</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9992349147796631</v>
+        <v>0.9865089058876038</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9431641697883606</v>
+        <v>0.9918204545974731</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9936906099319458</v>
+        <v>0.9994382262229919</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9930786490440369</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986086487770081</v>
+        <v>0.9990218877792358</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9994331002235413</v>
+        <v>0.9985095858573914</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996439218521118</v>
+        <v>0.9821056127548218</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9991268515586853</v>
+        <v>0.998290479183197</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9923670887947083</v>
+        <v>0.9995947480201721</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994902610778809</v>
+        <v>0.9853519797325134</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996408224105835</v>
+        <v>0.9773617386817932</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9933357238769531</v>
+        <v>0.9927043914794922</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9885025024414062</v>
+        <v>0.9993626475334167</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9994331002235413</v>
+        <v>0.7248664498329163</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9941002726554871</v>
+        <v>0.999052107334137</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995437264442444</v>
+        <v>0.9923911690711975</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9995299577713013</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996429681777954</v>
+        <v>0.9979326725006104</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9824233055114746</v>
+        <v>0.9993396401405334</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9975238442420959</v>
+        <v>0.9955549836158752</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993003606796265</v>
+        <v>0.9751308560371399</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9943875670433044</v>
+        <v>0.9949347376823425</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9933357238769531</v>
+        <v>0.9992616772651672</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9994333386421204</v>
+        <v>0.9991927742958069</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9996546506881714</v>
+        <v>0.9947890043258667</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9988498687744141</v>
+        <v>0.9989268183708191</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9429345726966858</v>
+        <v>0.999473512172699</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9995550513267517</v>
+        <v>0.9988961219787598</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996693134307861</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="33">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9997151494026184</v>
+        <v>0.9984122514724731</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9985743761062622</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9992539286613464</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9991843104362488</v>
+        <v>0.5328547954559326</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9701263904571533</v>
+        <v>0.9623653888702393</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9988651275634766</v>
+        <v>0.9985939860343933</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9995231628417969</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9993788003921509</v>
+        <v>0.9992021918296814</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9955020546913147</v>
+        <v>0.998884379863739</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9229658842086792</v>
+        <v>0.9992056488990784</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9996289014816284</v>
+        <v>0.9994553923606873</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9735948443412781</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9993876218795776</v>
+        <v>0.9992276430130005</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9996697902679443</v>
+        <v>0.9993502497673035</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.999286949634552</v>
+        <v>0.9993888139724731</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9996445178985596</v>
+        <v>0.7195616364479065</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.99528568983078</v>
+        <v>0.9992892742156982</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9994624257087708</v>
+        <v>0.9989914298057556</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9996393918991089</v>
+        <v>0.9992971420288086</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9996156692504883</v>
+        <v>0.9976193308830261</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3767328560352325</v>
+        <v>0.9992714524269104</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999441921710968</v>
+        <v>0.9955549836158752</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9931996464729309</v>
+        <v>0.9993932247161865</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9984287619590759</v>
+        <v>0.9958773851394653</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9993253946304321</v>
+        <v>0.9591503143310547</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.990398645401001</v>
+        <v>0.9991311430931091</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9996922016143799</v>
+        <v>0.9986581802368164</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9933357238769531</v>
+        <v>0.9993659853935242</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9756476879119873</v>
+        <v>0.9949347376823425</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9993615746498108</v>
+        <v>0.9986022114753723</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9995782971382141</v>
+        <v>0.9941685199737549</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9988498687744141</v>
+        <v>0.9993639588356018</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.99363774061203</v>
+        <v>0.9994331002235413</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9973775148391724</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.8155453205108643</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9762300252914429</v>
+        <v>0.9923432469367981</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9994574189186096</v>
+        <v>0.9993178844451904</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9997871518135071</v>
+        <v>0.9994246959686279</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9994657635688782</v>
+        <v>0.9993267059326172</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9666342735290527</v>
+        <v>0.9979580640792847</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9996079802513123</v>
+        <v>0.9990346431732178</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9749560952186584</v>
+        <v>0.9850506782531738</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9997574687004089</v>
+        <v>0.9705246090888977</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.999667763710022</v>
+        <v>0.4109628796577454</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9996622800827026</v>
+        <v>0.9992586970329285</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9996103644371033</v>
+        <v>0.9990731477737427</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.999670147895813</v>
+        <v>0.9947944283485413</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9994841814041138</v>
+        <v>0.9952448010444641</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9997106194496155</v>
+        <v>0.9925029277801514</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.999573290348053</v>
+        <v>0.9992690682411194</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9956256151199341</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7667407989501953</v>
+        <v>0.9989045858383179</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9954990744590759</v>
+        <v>0.9895321130752563</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9994620680809021</v>
+        <v>0.9990900754928589</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9919706583023071</v>
+        <v>0.9132434725761414</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9993554949760437</v>
+        <v>0.9995005130767822</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9968931674957275</v>
+        <v>0.9991415739059448</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9951063394546509</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9997490048408508</v>
+        <v>0.9991403818130493</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.971679151058197</v>
+        <v>0.9990758895874023</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9994156360626221</v>
+        <v>0.9982677698135376</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9997242093086243</v>
+        <v>0.9949347376823425</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9996059536933899</v>
+        <v>0.9992468357086182</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9849702119827271</v>
+        <v>0.9990262985229492</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9988871216773987</v>
+        <v>0.9992526173591614</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9995550513267517</v>
+        <v>0.7200590968132019</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.999377429485321</v>
+        <v>0.9995005130767822</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9997043013572693</v>
+        <v>0.9968249797821045</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9621295928955078</v>
+        <v>0.6080762147903442</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9996870756149292</v>
+        <v>0.9930786490440369</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6739205121994019</v>
+        <v>0.9981202483177185</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9993941783905029</v>
+        <v>0.9591503143310547</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9995385408401489</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9994229078292847</v>
+        <v>0.9991857409477234</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9994376301765442</v>
+        <v>0.6446366906166077</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9945607781410217</v>
+        <v>0.9919678568840027</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.99528568983078</v>
+        <v>0.7579672336578369</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5110283493995667</v>
+        <v>0.9992735981941223</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9995160102844238</v>
+        <v>0.9992464780807495</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9967392086982727</v>
+        <v>0.9986549615859985</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9932625889778137</v>
+        <v>0.9992188215255737</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9854051470756531</v>
+        <v>0.997590184211731</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.523775041103363</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9996504783630371</v>
+        <v>0.9918204545974731</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9994373917579651</v>
+        <v>0.9989165067672729</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9706276655197144</v>
+        <v>0.9923432469367981</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9922581315040588</v>
+        <v>0.9947890043258667</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9995977282524109</v>
+        <v>0.8190852999687195</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9997385144233704</v>
+        <v>0.9994082450866699</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9921113252639771</v>
+        <v>0.9939414262771606</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9994472861289978</v>
+        <v>0.8137798309326172</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9995405673980713</v>
+        <v>0.9969537258148193</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9964305758476257</v>
+        <v>0.9919307827949524</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6905496120452881</v>
+        <v>0.9989997744560242</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9968931674957275</v>
+        <v>0.9990085959434509</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.999667763710022</v>
+        <v>0.9940153956413269</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9936467409133911</v>
+        <v>0.9991806149482727</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9828466773033142</v>
+        <v>0.9992541670799255</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9919862747192383</v>
+        <v>0.9946640729904175</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.999599277973175</v>
+        <v>0.9987934827804565</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9995777010917664</v>
+        <v>0.9930786490440369</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9994903802871704</v>
+        <v>0.9948418736457825</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9996707439422607</v>
+        <v>0.9811965227127075</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9919862747192383</v>
+        <v>0.5212104320526123</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9204986095428467</v>
+        <v>0.9995037317276001</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9993892908096313</v>
+        <v>0.9931027889251709</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9996558427810669</v>
+        <v>0.7308484315872192</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9877879023551941</v>
+        <v>0.9952179789543152</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9997501969337463</v>
+        <v>0.9991150498390198</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9994452595710754</v>
+        <v>0.9951523542404175</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9968675971031189</v>
+        <v>0.9979664087295532</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9997088313102722</v>
+        <v>0.99760901927948</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.995811939239502</v>
+        <v>0.9992620348930359</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8491215109825134</v>
+        <v>0.9994561076164246</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9958250522613525</v>
+        <v>0.9987599849700928</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8484253287315369</v>
+        <v>0.9801744222640991</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9992434978485107</v>
+        <v>0.9680982232093811</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9944632649421692</v>
+        <v>0.9991718530654907</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9995038509368896</v>
+        <v>0.9991523027420044</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9996731281280518</v>
+        <v>0.9995101690292358</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996696710586548</v>
+        <v>0.9960220456123352</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9660608768463135</v>
+        <v>0.9924232959747314</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6390103101730347</v>
+        <v>0.9919527173042297</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9742675423622131</v>
+        <v>0.9990190267562866</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999657154083252</v>
+        <v>0.9980179071426392</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9988596439361572</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9960440397262573</v>
+        <v>0.9883610606193542</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994738698005676</v>
+        <v>0.9990384578704834</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.999442994594574</v>
+        <v>0.9993639588356018</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.999457061290741</v>
+        <v>0.9984720349311829</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.999299168586731</v>
+        <v>0.9903674125671387</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996720552444458</v>
+        <v>0.9911649823188782</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9961058497428894</v>
+        <v>0.9994307160377502</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9994505047798157</v>
+        <v>0.9996009469032288</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996756315231323</v>
+        <v>0.9996009469032288</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9839507341384888</v>
+        <v>0.9979326725006104</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9994165897369385</v>
+        <v>0.8374081254005432</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9885025024414062</v>
+        <v>0.9986904263496399</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9976760745048523</v>
+        <v>0.9990501999855042</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9993023872375488</v>
+        <v>0.9843111634254456</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9701345562934875</v>
+        <v>0.9947251677513123</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9995794892311096</v>
+        <v>0.9988266825675964</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9991251826286316</v>
+        <v>0.9992324113845825</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7841660976409912</v>
+        <v>0.9933686852455139</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9992490410804749</v>
+        <v>0.784676194190979</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9995437264442444</v>
+        <v>0.9990130662918091</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9993128776550293</v>
+        <v>0.9809576272964478</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9960709810256958</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9991549253463745</v>
+        <v>0.4929523766040802</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9993323683738708</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9796521067619324</v>
+        <v>0.9989120960235596</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9967392086982727</v>
+        <v>0.9991130232810974</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9997363686561584</v>
+        <v>0.9145562648773193</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8997440338134766</v>
+        <v>0.9468004107475281</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9995195865631104</v>
+        <v>0.9990845918655396</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9995619654655457</v>
+        <v>0.9991739392280579</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9967392086982727</v>
+        <v>0.9958531856536865</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9936979413032532</v>
+        <v>0.9908017516136169</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9996774196624756</v>
+        <v>0.9994550347328186</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9971538782119751</v>
+        <v>0.9977114200592041</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9995070695877075</v>
+        <v>0.9463846683502197</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9968931674957275</v>
+        <v>0.9992390871047974</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9995213747024536</v>
+        <v>0.9992151260375977</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9996806383132935</v>
+        <v>0.9992021918296814</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.999297022819519</v>
+        <v>0.9682188034057617</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.999347984790802</v>
+        <v>0.9992445707321167</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.8760344386100769</v>
+        <v>0.9889329671859741</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9995508790016174</v>
+        <v>0.9993396401405334</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9931623935699463</v>
+        <v>0.9950834512710571</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.999659538269043</v>
+        <v>0.9995914101600647</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9970819354057312</v>
+        <v>0.9990046620368958</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9839507341384888</v>
+        <v>0.9985865354537964</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9995551705360413</v>
+        <v>0.9993820190429688</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.988431453704834</v>
+        <v>0.9986956715583801</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8998788595199585</v>
+        <v>0.6243784427642822</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9997859597206116</v>
+        <v>0.9427880048751831</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9996546506881714</v>
+        <v>0.9994418025016785</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9960330128669739</v>
+        <v>0.9947890043258667</v>
       </c>
     </row>
   </sheetData>
